--- a/project/2014/12/20141211-xlsx_to_solr_xml/example-data.xlsx
+++ b/project/2014/12/20141211-xlsx_to_solr_xml/example-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\solr-4.10.1\example\exampledocs\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Dropbox\Public\blogger\project\2014\12\20141211-xlsx_to_solr_xml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -418,9 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
